--- a/Mod.xlsx
+++ b/Mod.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V86"/>
+  <dimension ref="A1:W86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -508,45 +508,50 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
+          <t>Missing tools ?</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
           <t>What features, tools, workflows etc. would you like to have in Galaxy that would support your research?</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Which training resources are you using?</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Training resources?</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Which country are you based in?</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>What is your career stage?</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Would you be interested in being contacted by the microGalaxy team and contributing an example use case to a manuscript?</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>If yes, please provide an email address</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Do you have link(s) to publications or websites where we can read more about your research? If so, please add these below.</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>If the tools, platforms or databases from the previous question could be deployed in Galaxy would use prefer to use in there?</t>
         </is>
@@ -604,35 +609,40 @@
           <t>Bracken (pluspf) broken</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Bracken, PlusPF</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr">
         <is>
           <t>All from: metagenomics</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>Divers</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="R2" t="inlineStr">
         <is>
           <t>Germany</t>
         </is>
       </c>
-      <c r="R2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>Postdoctoral researcher</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr"/>
       <c r="V2" t="inlineStr"/>
+      <c r="W2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -655,14 +665,15 @@
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="U3" t="inlineStr"/>
       <c r="V3" t="inlineStr"/>
+      <c r="W3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -709,37 +720,42 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
+          <t>Panario, Pangolin, GWAS tools</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
           <t>A clear trycycler workflow!</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t xml:space="preserve">Italy </t>
         </is>
       </c>
-      <c r="R4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>Postdoctoral researcher</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
       <c r="T4" t="inlineStr">
         <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
           <t>gabriele.arcari@uniroma1.it</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>https://scholar.google.com/citations?user=uNhF0owAAAAJ&amp;hl=it</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="W4" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -797,46 +813,51 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
+          <t>Whole genome phylogeny</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
           <t>Whole genome phylogeny, metabolite analysis from GC-MS &amp; LC-MS, convert the SNPs output from mummer to vcf format</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>Galaxy help boards</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>Galaxy Forum</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="R5" t="inlineStr">
         <is>
           <t>China</t>
         </is>
       </c>
-      <c r="R5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>Principal Investigator</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
       <c r="T5" t="inlineStr">
         <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
           <t>paul4594@hotmail.co.uk</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>10.3389/fmicb.2021.765872 
 10.1128/spectrum.02268-21</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="W5" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -896,33 +917,38 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
+          <t>Unsure</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
           <t>A dream: Some microbiome/microbial wizard truly for dummies, that would enable performing a set of very basic analyses, depending on what the samples are (therefore the "wizard"). Maybe in the end suggesting some "further reading/training" for adequate, more thorough, or subsequent analyses.</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>None recently, sadly no capacity :(</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>Norway</t>
         </is>
       </c>
-      <c r="R6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>Oh no, we forgot to include technical positions :( Mine is called Senior Engineer</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr"/>
       <c r="V6" t="inlineStr"/>
+      <c r="W6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -964,27 +990,28 @@
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr">
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr">
         <is>
           <t>Principal Investigator</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
       <c r="T7" t="inlineStr">
         <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
           <t>suzuki-m@niid.go.jp</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>https://link.springer.com/protocol/10.1007/978-1-0716-2996-3_16</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="W7" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -1031,42 +1058,43 @@
       </c>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr">
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr">
         <is>
           <t>GTN</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>GTN</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="R8" t="inlineStr">
         <is>
           <t>USA</t>
         </is>
       </c>
-      <c r="R8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>Principal Investigator</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
       <c r="T8" t="inlineStr">
         <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
           <t>pjagtap@umn.edu</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>z.umn.edu/galaxypreferences</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="W8" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -1128,45 +1156,50 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
+          <t>Mgnify databases</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
           <t>MGnify pipelines transformed into Galaxy workflows</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="P9" t="inlineStr">
         <is>
           <t>Papers, EBI on demand training, MGnify user guide.</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>Scientific Journals, EBI, Mgnify</t>
         </is>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="R9" t="inlineStr">
         <is>
           <t>United Kingdom</t>
         </is>
       </c>
-      <c r="R9" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>Principal Investigator</t>
         </is>
       </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
       <c r="T9" t="inlineStr">
         <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
           <t>rdf@ebi.ac.uk</t>
         </is>
       </c>
-      <c r="U9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>https://www.ebi.ac.uk/people/person/rob-finn/</t>
         </is>
       </c>
-      <c r="V9" t="inlineStr">
+      <c r="W9" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -1234,29 +1267,34 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
+          <t>ete3</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
           <t>a tool to obtain taxonomic info from blast (NCBI) accession</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr"/>
       <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr">
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
         <is>
           <t>France</t>
         </is>
       </c>
-      <c r="R10" t="inlineStr">
+      <c r="S10" t="inlineStr">
         <is>
           <t>Staff scientist</t>
         </is>
       </c>
-      <c r="S10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr"/>
-      <c r="V10" t="inlineStr">
+      <c r="V10" t="inlineStr"/>
+      <c r="W10" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -1313,34 +1351,35 @@
       </c>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr">
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr">
         <is>
           <t>Galaxy Training Workshop in Freiburg</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
+      <c r="Q11" t="inlineStr">
         <is>
           <t>Galaxy Workshop</t>
         </is>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="R11" t="inlineStr">
         <is>
           <t>Germany</t>
         </is>
       </c>
-      <c r="R11" t="inlineStr">
+      <c r="S11" t="inlineStr">
         <is>
           <t>Principal Investigator</t>
         </is>
       </c>
-      <c r="S11" t="inlineStr">
+      <c r="T11" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr"/>
-      <c r="V11" t="inlineStr">
+      <c r="V11" t="inlineStr"/>
+      <c r="W11" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -1402,37 +1441,42 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
+          <t>Anvi'o, customs databases, decontamination tools</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
           <t>Non, we have our own workflows</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="P12" t="inlineStr">
         <is>
           <t>Galaxy training GCC</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
+      <c r="Q12" t="inlineStr">
         <is>
           <t xml:space="preserve">GTN, Conference Galaxy Workshop </t>
         </is>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="R12" t="inlineStr">
         <is>
           <t>Belgium</t>
         </is>
       </c>
-      <c r="R12" t="inlineStr">
+      <c r="S12" t="inlineStr">
         <is>
           <t>Staff scientist</t>
         </is>
       </c>
-      <c r="S12" t="inlineStr">
+      <c r="T12" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="T12" t="inlineStr"/>
       <c r="U12" t="inlineStr"/>
-      <c r="V12" t="inlineStr">
+      <c r="V12" t="inlineStr"/>
+      <c r="W12" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -1482,31 +1526,36 @@
       </c>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>Bactopia</t>
+        </is>
+      </c>
       <c r="O13" t="inlineStr"/>
       <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr">
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr">
         <is>
           <t>Italy</t>
         </is>
       </c>
-      <c r="R13" t="inlineStr">
+      <c r="S13" t="inlineStr">
         <is>
           <t>Staff scientist</t>
         </is>
       </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
       <c r="T13" t="inlineStr">
         <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="U13" t="inlineStr"/>
-      <c r="V13" t="inlineStr">
+      <c r="V13" t="inlineStr"/>
+      <c r="W13" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -1560,43 +1609,44 @@
           <t>Many tools which provide complete analysis of Bacteria genome, Eg Bactopia.</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr">
         <is>
           <t>Comparative proteomics, Annotation viewing, Metabolic pathway preparation, Multiomic analysis</t>
         </is>
       </c>
-      <c r="O14" t="inlineStr">
+      <c r="P14" t="inlineStr">
         <is>
           <t>Galaxy</t>
         </is>
       </c>
-      <c r="P14" t="inlineStr">
+      <c r="Q14" t="inlineStr">
         <is>
           <t>Galaxy Help</t>
         </is>
       </c>
-      <c r="Q14" t="inlineStr">
+      <c r="R14" t="inlineStr">
         <is>
           <t>India</t>
         </is>
       </c>
-      <c r="R14" t="inlineStr">
+      <c r="S14" t="inlineStr">
         <is>
           <t>PhD student</t>
         </is>
       </c>
-      <c r="S14" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
       <c r="T14" t="inlineStr">
         <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
           <t>mustafa.vohra1@gmail.com</t>
         </is>
       </c>
-      <c r="U14" t="inlineStr"/>
-      <c r="V14" t="inlineStr">
+      <c r="V14" t="inlineStr"/>
+      <c r="W14" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -1658,43 +1708,48 @@
         </is>
       </c>
       <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr">
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>CNV identification</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr"/>
+      <c r="P15" t="inlineStr">
         <is>
           <t>The GalaxyTrakr team provides trainings to users in the public health field - primairly with regard to foodborne pathogens</t>
         </is>
       </c>
-      <c r="P15" t="inlineStr">
+      <c r="Q15" t="inlineStr">
         <is>
           <t>GalaxyTrakr</t>
         </is>
       </c>
-      <c r="Q15" t="inlineStr">
+      <c r="R15" t="inlineStr">
         <is>
           <t>USA</t>
         </is>
       </c>
-      <c r="R15" t="inlineStr">
+      <c r="S15" t="inlineStr">
         <is>
           <t>Manage a research group</t>
         </is>
       </c>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
       <c r="T15" t="inlineStr">
         <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
           <t>hugh.rand@fda.hhs.gov</t>
         </is>
       </c>
-      <c r="U15" t="inlineStr">
+      <c r="V15" t="inlineStr">
         <is>
           <t>https://pubmed.NCBI.nlm.nih.gov/33568057/</t>
         </is>
       </c>
-      <c r="V15" t="inlineStr">
+      <c r="W15" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -1750,45 +1805,50 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
+          <t>High quality figures</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
           <t xml:space="preserve">Trio WES and pipeline for rare diseasomics </t>
         </is>
       </c>
-      <c r="O16" t="inlineStr">
+      <c r="P16" t="inlineStr">
         <is>
           <t>Galaxyproject.org</t>
         </is>
       </c>
-      <c r="P16" t="inlineStr">
+      <c r="Q16" t="inlineStr">
         <is>
           <t>GTN</t>
         </is>
       </c>
-      <c r="Q16" t="inlineStr">
+      <c r="R16" t="inlineStr">
         <is>
           <t xml:space="preserve">India </t>
         </is>
       </c>
-      <c r="R16" t="inlineStr">
+      <c r="S16" t="inlineStr">
         <is>
           <t>Principal Investigator</t>
         </is>
       </c>
-      <c r="S16" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
       <c r="T16" t="inlineStr">
         <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
           <t>prash@bioclues.org</t>
         </is>
       </c>
-      <c r="U16" t="inlineStr">
+      <c r="V16" t="inlineStr">
         <is>
           <t>Wiki.bioinformatics.org/prash</t>
         </is>
       </c>
-      <c r="V16" t="inlineStr">
+      <c r="W16" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -1846,39 +1906,40 @@
           <t xml:space="preserve">Analysis and good quality picture </t>
         </is>
       </c>
-      <c r="N17" t="inlineStr">
+      <c r="N17" t="inlineStr"/>
+      <c r="O17" t="inlineStr">
         <is>
           <t xml:space="preserve">Genomics </t>
         </is>
       </c>
-      <c r="O17" t="inlineStr">
+      <c r="P17" t="inlineStr">
         <is>
           <t xml:space="preserve">Galaxy menual </t>
         </is>
       </c>
-      <c r="P17" t="inlineStr">
+      <c r="Q17" t="inlineStr">
         <is>
           <t>Galaxy Help</t>
         </is>
       </c>
-      <c r="Q17" t="inlineStr">
+      <c r="R17" t="inlineStr">
         <is>
           <t xml:space="preserve">India </t>
         </is>
       </c>
-      <c r="R17" t="inlineStr">
+      <c r="S17" t="inlineStr">
         <is>
           <t>PhD student</t>
         </is>
       </c>
-      <c r="S17" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="T17" t="inlineStr"/>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="U17" t="inlineStr"/>
-      <c r="V17" t="inlineStr">
+      <c r="V17" t="inlineStr"/>
+      <c r="W17" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -1946,29 +2007,34 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
+          <t>DAVID</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
           <t>sRNA detect (tool for predicting novel ncRNAs)</t>
         </is>
       </c>
-      <c r="O18" t="inlineStr"/>
       <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr">
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr">
         <is>
           <t>Portugal</t>
         </is>
       </c>
-      <c r="R18" t="inlineStr">
+      <c r="S18" t="inlineStr">
         <is>
           <t>Research/Senior engineer</t>
         </is>
       </c>
-      <c r="S18" t="inlineStr">
+      <c r="T18" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr"/>
-      <c r="V18" t="inlineStr">
+      <c r="V18" t="inlineStr"/>
+      <c r="W18" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -2019,42 +2085,43 @@
       </c>
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr">
+      <c r="O19" t="inlineStr"/>
+      <c r="P19" t="inlineStr">
         <is>
           <t>Genomic assembly and Transcriptomic analysis</t>
         </is>
       </c>
-      <c r="P19" t="inlineStr">
+      <c r="Q19" t="inlineStr">
         <is>
           <t>Divers</t>
         </is>
       </c>
-      <c r="Q19" t="inlineStr">
+      <c r="R19" t="inlineStr">
         <is>
           <t>Trinidad and Tobago</t>
         </is>
       </c>
-      <c r="R19" t="inlineStr">
+      <c r="S19" t="inlineStr">
         <is>
           <t>Postdoctoral researcher</t>
         </is>
       </c>
-      <c r="S19" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
       <c r="T19" t="inlineStr">
         <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
           <t>stephen.ramnarine@gmail.com</t>
         </is>
       </c>
-      <c r="U19" t="inlineStr">
+      <c r="V19" t="inlineStr">
         <is>
           <t>https://orcid.org/my-orcid?orcid=0000-0002-0937-0046</t>
         </is>
       </c>
-      <c r="V19" t="inlineStr">
+      <c r="W19" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -2106,45 +2173,50 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
+          <t>Metadata integration</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
           <t>community databases and indexing, to improve discoverability of collaborator datasets (i.e. "show me GenomeTrakr sequencing on tuna, but not from Tuna, TX")</t>
         </is>
       </c>
-      <c r="O20" t="inlineStr">
+      <c r="P20" t="inlineStr">
         <is>
           <t>YouTube videos from the Galaxy community, and our own</t>
         </is>
       </c>
-      <c r="P20" t="inlineStr">
+      <c r="Q20" t="inlineStr">
         <is>
           <t>GTN, Galaxy Help</t>
         </is>
       </c>
-      <c r="Q20" t="inlineStr">
+      <c r="R20" t="inlineStr">
         <is>
           <t>USA, Thailand</t>
         </is>
       </c>
-      <c r="R20" t="inlineStr">
+      <c r="S20" t="inlineStr">
         <is>
           <t>Research/Senior engineer</t>
         </is>
       </c>
-      <c r="S20" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
       <c r="T20" t="inlineStr">
         <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
           <t>justin.payne@fda.hhs.gov</t>
         </is>
       </c>
-      <c r="U20" t="inlineStr">
+      <c r="V20" t="inlineStr">
         <is>
           <t>https://www.researchgate.net/publication/349214259_GalaxyTrakr_a_distributed_analysis_tool_for_public_health_whole_genome_sequence_data_accessible_to_non-bioinformaticians</t>
         </is>
       </c>
-      <c r="V20" t="inlineStr">
+      <c r="W20" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -2200,45 +2272,50 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
+          <t>Pgap</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
           <t>SNP pipelines, serotypying, MLST, AMR and phylogenetics  visualizations.</t>
         </is>
       </c>
-      <c r="O21" t="inlineStr">
+      <c r="P21" t="inlineStr">
         <is>
           <t>usegalaxy</t>
         </is>
       </c>
-      <c r="P21" t="inlineStr">
+      <c r="Q21" t="inlineStr">
         <is>
           <t>Galaxy Help</t>
         </is>
       </c>
-      <c r="Q21" t="inlineStr">
+      <c r="R21" t="inlineStr">
         <is>
           <t>USA</t>
         </is>
       </c>
-      <c r="R21" t="inlineStr">
+      <c r="S21" t="inlineStr">
         <is>
           <t>Research/Senior engineer</t>
         </is>
       </c>
-      <c r="S21" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
       <c r="T21" t="inlineStr">
         <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
           <t>jayanthi.ganngiredla@fda.hhs.gov</t>
         </is>
       </c>
-      <c r="U21" t="inlineStr">
+      <c r="V21" t="inlineStr">
         <is>
           <t>https://bmcgenomics.biomedcentral.com/articles/10.1186/s12864-021-07405-8</t>
         </is>
       </c>
-      <c r="V21" t="inlineStr">
+      <c r="W21" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -2286,45 +2363,50 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
+          <t>Unsure</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
           <t>Bacterial one</t>
         </is>
       </c>
-      <c r="O22" t="inlineStr">
+      <c r="P22" t="inlineStr">
         <is>
           <t>Galaxy.org</t>
         </is>
       </c>
-      <c r="P22" t="inlineStr">
+      <c r="Q22" t="inlineStr">
         <is>
           <t>Galaxy Help</t>
         </is>
       </c>
-      <c r="Q22" t="inlineStr">
+      <c r="R22" t="inlineStr">
         <is>
           <t>India</t>
         </is>
       </c>
-      <c r="R22" t="inlineStr">
+      <c r="S22" t="inlineStr">
         <is>
           <t>Principal Investigator</t>
         </is>
       </c>
-      <c r="S22" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
       <c r="T22" t="inlineStr">
         <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
           <t>drsangene@gmail.com</t>
         </is>
       </c>
-      <c r="U22" t="inlineStr">
+      <c r="V22" t="inlineStr">
         <is>
           <t>no</t>
         </is>
       </c>
-      <c r="V22" t="inlineStr">
+      <c r="W22" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -2366,13 +2448,14 @@
         </is>
       </c>
       <c r="M23" t="inlineStr"/>
-      <c r="N23" t="inlineStr">
+      <c r="N23" t="inlineStr"/>
+      <c r="O23" t="inlineStr">
         <is>
           <t xml:space="preserve">ppi network analysis tools
 Docking and Molecular dynamics </t>
         </is>
       </c>
-      <c r="O23" t="inlineStr">
+      <c r="P23" t="inlineStr">
         <is>
           <t>Removal of human reads from SARS-CoV-2 sequencing data
 Mutation calling, viral genome reconstruction and lineage/clade assignment from SARS-CoV-2 sequencing data
@@ -2382,25 +2465,25 @@
 Metatranscriptomics analysis using microbiome RNA-seq data</t>
         </is>
       </c>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr">
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="inlineStr">
         <is>
           <t>Tunisia</t>
         </is>
       </c>
-      <c r="R23" t="inlineStr">
+      <c r="S23" t="inlineStr">
         <is>
           <t>Graduate student</t>
         </is>
       </c>
-      <c r="S23" t="inlineStr">
+      <c r="T23" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr"/>
-      <c r="V23" t="inlineStr">
+      <c r="V23" t="inlineStr"/>
+      <c r="W23" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -2460,33 +2543,38 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
+          <t>Unsure</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
           <t>I would not know</t>
         </is>
       </c>
-      <c r="O24" t="inlineStr">
+      <c r="P24" t="inlineStr">
         <is>
           <t>at the moment none</t>
         </is>
       </c>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr">
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr">
         <is>
           <t>Italy</t>
         </is>
       </c>
-      <c r="R24" t="inlineStr">
+      <c r="S24" t="inlineStr">
         <is>
           <t>Postdoctoral researcher</t>
         </is>
       </c>
-      <c r="S24" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="T24" t="inlineStr"/>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="U24" t="inlineStr"/>
-      <c r="V24" t="inlineStr">
+      <c r="V24" t="inlineStr"/>
+      <c r="W24" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -2537,23 +2625,24 @@
       <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr"/>
-      <c r="S25" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
+      <c r="S25" t="inlineStr"/>
       <c r="T25" t="inlineStr">
         <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
           <t>odias@deb.uminho.pt</t>
         </is>
       </c>
-      <c r="U25" t="inlineStr">
+      <c r="V25" t="inlineStr">
         <is>
           <t xml:space="preserve">One example: https://doi.org/10.1093/bioinformatics/btz580
 </t>
         </is>
       </c>
-      <c r="V25" t="inlineStr"/>
+      <c r="W25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -2607,40 +2696,45 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
+          <t>KEGG,BLAST2GO,KOBAS</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
           <t>trinity based workflows for plant transcriptome analysis</t>
         </is>
       </c>
-      <c r="O26" t="inlineStr">
+      <c r="P26" t="inlineStr">
         <is>
           <t>Google as well as research papers</t>
         </is>
       </c>
-      <c r="P26" t="inlineStr">
+      <c r="Q26" t="inlineStr">
         <is>
           <t>Scientific Journals</t>
         </is>
       </c>
-      <c r="Q26" t="inlineStr">
+      <c r="R26" t="inlineStr">
         <is>
           <t>India</t>
         </is>
       </c>
-      <c r="R26" t="inlineStr">
+      <c r="S26" t="inlineStr">
         <is>
           <t>seeking a PhD position</t>
         </is>
       </c>
-      <c r="S26" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
       <c r="T26" t="inlineStr">
         <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
           <t>jinutchirayath@gmail.com</t>
         </is>
       </c>
-      <c r="U26" t="inlineStr">
+      <c r="V26" t="inlineStr">
         <is>
           <t>1. Nadiya, F., N. Anjali, Jinu Thomas, A. Gangaprasad, K. K. Sabu. 2019. Deep sequencing
  identified potential miRNAs involved in defense response, stress and plant growth
@@ -2652,7 +2746,7 @@
  https://doi.org/10.1016/j.aggene.2018.03.002</t>
         </is>
       </c>
-      <c r="V26" t="inlineStr">
+      <c r="W26" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -2704,47 +2798,48 @@
         </is>
       </c>
       <c r="M27" t="inlineStr"/>
-      <c r="N27" t="inlineStr">
+      <c r="N27" t="inlineStr"/>
+      <c r="O27" t="inlineStr">
         <is>
           <t xml:space="preserve">In-depth genome assembly and polishing workflows. Also annotation. Phylogenetic analysis workflows are needed. </t>
         </is>
       </c>
-      <c r="O27" t="inlineStr">
+      <c r="P27" t="inlineStr">
         <is>
           <t>All of them basically</t>
         </is>
       </c>
-      <c r="P27" t="inlineStr">
+      <c r="Q27" t="inlineStr">
         <is>
           <t>Divers</t>
         </is>
       </c>
-      <c r="Q27" t="inlineStr">
+      <c r="R27" t="inlineStr">
         <is>
           <t>Turkey</t>
         </is>
       </c>
-      <c r="R27" t="inlineStr">
+      <c r="S27" t="inlineStr">
         <is>
           <t>MD, Clinical Microbiologist</t>
         </is>
       </c>
-      <c r="S27" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
       <c r="T27" t="inlineStr">
         <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
           <t xml:space="preserve"> osmanmerdan@uludag.edu.tr </t>
         </is>
       </c>
-      <c r="U27" t="inlineStr">
+      <c r="V27" t="inlineStr">
         <is>
           <t xml:space="preserve"> DOI: 10.1128/spectrum.00776-22</t>
         </is>
       </c>
-      <c r="V27" t="inlineStr">
+      <c r="W27" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -2789,32 +2884,33 @@
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr"/>
       <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr">
+      <c r="Q28" t="inlineStr"/>
+      <c r="R28" t="inlineStr">
         <is>
           <t>United Kingdom</t>
         </is>
       </c>
-      <c r="R28" t="inlineStr">
+      <c r="S28" t="inlineStr">
         <is>
           <t>Research/Senior engineer</t>
         </is>
       </c>
-      <c r="S28" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
       <c r="T28" t="inlineStr">
         <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
           <t>anilthanki@ebi.ac.uk</t>
         </is>
       </c>
-      <c r="U28" t="inlineStr">
+      <c r="V28" t="inlineStr">
         <is>
           <t>https://anilthanki.github.io</t>
         </is>
       </c>
-      <c r="V28" t="inlineStr">
+      <c r="W28" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -2882,41 +2978,46 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
+          <t>Unsure</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
           <t>I am not sure if this is already integrated but I will say statistical tests and visualizations about how abiotic factors affect microbial alpha and beta diversity. Also analysis and maybe visualization tools about core micriobiome.</t>
         </is>
       </c>
-      <c r="O29" t="inlineStr">
+      <c r="P29" t="inlineStr">
         <is>
           <t>Physalia courses mainly, also other online training courses  (same happened for Galaxy as well)</t>
         </is>
       </c>
-      <c r="P29" t="inlineStr">
+      <c r="Q29" t="inlineStr">
         <is>
           <t>Online Training</t>
         </is>
       </c>
-      <c r="Q29" t="inlineStr">
+      <c r="R29" t="inlineStr">
         <is>
           <t>Greece</t>
         </is>
       </c>
-      <c r="R29" t="inlineStr">
+      <c r="S29" t="inlineStr">
         <is>
           <t>PhD student</t>
         </is>
       </c>
-      <c r="S29" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
       <c r="T29" t="inlineStr">
         <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
           <t>georgia.tari@gmail.com</t>
         </is>
       </c>
-      <c r="U29" t="inlineStr"/>
-      <c r="V29" t="inlineStr">
+      <c r="V29" t="inlineStr"/>
+      <c r="W29" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -2975,34 +3076,39 @@
           <t>brig, checkM</t>
         </is>
       </c>
-      <c r="O30" t="inlineStr"/>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>brig, checkM</t>
+        </is>
+      </c>
       <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr">
+      <c r="Q30" t="inlineStr"/>
+      <c r="R30" t="inlineStr">
         <is>
           <t>Bangladesh</t>
         </is>
       </c>
-      <c r="R30" t="inlineStr">
+      <c r="S30" t="inlineStr">
         <is>
           <t>Staff scientist</t>
         </is>
       </c>
-      <c r="S30" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
       <c r="T30" t="inlineStr">
         <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
           <t>sh20nov@gmail.com</t>
         </is>
       </c>
-      <c r="U30" t="inlineStr">
+      <c r="V30" t="inlineStr">
         <is>
           <t>https://scholar.google.com/citations?user=p0xjD0QAAAAJ&amp;hl=en</t>
         </is>
       </c>
-      <c r="V30" t="inlineStr">
+      <c r="W30" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -3058,19 +3164,20 @@
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr">
+      <c r="R31" t="inlineStr"/>
+      <c r="S31" t="inlineStr">
         <is>
           <t>Research/Senior engineer</t>
         </is>
       </c>
-      <c r="S31" t="inlineStr">
+      <c r="T31" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr"/>
-      <c r="V31" t="inlineStr">
+      <c r="V31" t="inlineStr"/>
+      <c r="W31" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -3129,24 +3236,25 @@
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr">
+      <c r="Q32" t="inlineStr"/>
+      <c r="R32" t="inlineStr">
         <is>
           <t>France</t>
         </is>
       </c>
-      <c r="R32" t="inlineStr">
+      <c r="S32" t="inlineStr">
         <is>
           <t>Staff scientist</t>
         </is>
       </c>
-      <c r="S32" t="inlineStr">
+      <c r="T32" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr"/>
-      <c r="V32" t="inlineStr">
+      <c r="V32" t="inlineStr"/>
+      <c r="W32" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -3198,29 +3306,34 @@
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr">
         <is>
+          <t>Unsure</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
           <t>All the phyloseq features we can do in RStudio</t>
         </is>
       </c>
-      <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr">
+      <c r="Q33" t="inlineStr"/>
+      <c r="R33" t="inlineStr">
         <is>
           <t>France</t>
         </is>
       </c>
-      <c r="R33" t="inlineStr">
+      <c r="S33" t="inlineStr">
         <is>
           <t>PhD student</t>
         </is>
       </c>
-      <c r="S33" t="inlineStr">
+      <c r="T33" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr"/>
-      <c r="V33" t="inlineStr">
+      <c r="V33" t="inlineStr"/>
+      <c r="W33" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -3272,31 +3385,32 @@
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr"/>
-      <c r="N34" t="inlineStr">
+      <c r="N34" t="inlineStr"/>
+      <c r="O34" t="inlineStr">
         <is>
           <t>Genome assembly tool</t>
         </is>
       </c>
-      <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr">
+      <c r="Q34" t="inlineStr"/>
+      <c r="R34" t="inlineStr">
         <is>
           <t>France</t>
         </is>
       </c>
-      <c r="R34" t="inlineStr">
+      <c r="S34" t="inlineStr">
         <is>
           <t>Graduate student</t>
         </is>
       </c>
-      <c r="S34" t="inlineStr">
+      <c r="T34" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr"/>
-      <c r="V34" t="inlineStr">
+      <c r="V34" t="inlineStr"/>
+      <c r="W34" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -3344,37 +3458,42 @@
       </c>
       <c r="N35" t="inlineStr">
         <is>
+          <t>Unsure</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
           <t>-</t>
         </is>
       </c>
-      <c r="O35" t="inlineStr">
+      <c r="P35" t="inlineStr">
         <is>
           <t>webinar and CNRS Formation</t>
         </is>
       </c>
-      <c r="P35" t="inlineStr">
+      <c r="Q35" t="inlineStr">
         <is>
           <t>Online Training, CNRS Formation</t>
         </is>
       </c>
-      <c r="Q35" t="inlineStr">
+      <c r="R35" t="inlineStr">
         <is>
           <t>France</t>
         </is>
       </c>
-      <c r="R35" t="inlineStr">
+      <c r="S35" t="inlineStr">
         <is>
           <t>Staff scientist</t>
         </is>
       </c>
-      <c r="S35" t="inlineStr">
+      <c r="T35" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr"/>
-      <c r="V35" t="inlineStr">
+      <c r="V35" t="inlineStr"/>
+      <c r="W35" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -3419,28 +3538,29 @@
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr">
+      <c r="Q36" t="inlineStr"/>
+      <c r="R36" t="inlineStr">
         <is>
           <t>Tanzania</t>
         </is>
       </c>
-      <c r="R36" t="inlineStr">
+      <c r="S36" t="inlineStr">
         <is>
           <t>PhD student</t>
         </is>
       </c>
-      <c r="S36" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
       <c r="T36" t="inlineStr">
         <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
           <t>dclayk@gmail.com</t>
         </is>
       </c>
-      <c r="U36" t="inlineStr"/>
       <c r="V36" t="inlineStr"/>
+      <c r="W36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -3496,29 +3616,34 @@
       </c>
       <c r="N37" t="inlineStr">
         <is>
+          <t>Core genome MLST, SNP clustering analysis, ribosomal MLST, spanning tree</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
           <t>ChewBBACA, confindr, grapetree</t>
         </is>
       </c>
-      <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr">
+      <c r="Q37" t="inlineStr"/>
+      <c r="R37" t="inlineStr">
         <is>
           <t>France</t>
         </is>
       </c>
-      <c r="R37" t="inlineStr">
+      <c r="S37" t="inlineStr">
         <is>
           <t>Research/Senior engineer</t>
         </is>
       </c>
-      <c r="S37" t="inlineStr">
+      <c r="T37" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr"/>
-      <c r="V37" t="inlineStr">
+      <c r="V37" t="inlineStr"/>
+      <c r="W37" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -3568,39 +3693,40 @@
           <t>A consensus read function. When we sequence a sample, several variants of Plasmodium is often present. We would like to be able to construct several consensus sequences per sample</t>
         </is>
       </c>
-      <c r="N38" t="inlineStr">
+      <c r="N38" t="inlineStr"/>
+      <c r="O38" t="inlineStr">
         <is>
           <t>The above mentioned</t>
         </is>
       </c>
-      <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr">
+      <c r="Q38" t="inlineStr"/>
+      <c r="R38" t="inlineStr">
         <is>
           <t>Denmark</t>
         </is>
       </c>
-      <c r="R38" t="inlineStr">
+      <c r="S38" t="inlineStr">
         <is>
           <t>PhD student</t>
         </is>
       </c>
-      <c r="S38" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
       <c r="T38" t="inlineStr">
         <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
           <t>emma.hocke@sund.ku.dk</t>
         </is>
       </c>
-      <c r="U38" t="inlineStr">
+      <c r="V38" t="inlineStr">
         <is>
           <t>https://cmp.ku.dk/staff/?pure=en%2Fpersons%2Femma-filtenborg-hocke(446838a0-367d-494a-be41-74cc8ad845b4)%2Fpublications.html</t>
         </is>
       </c>
-      <c r="V38" t="inlineStr">
+      <c r="W38" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -3654,47 +3780,48 @@
           <t xml:space="preserve">typing sequence , annotation od genomes </t>
         </is>
       </c>
-      <c r="N39" t="inlineStr">
+      <c r="N39" t="inlineStr"/>
+      <c r="O39" t="inlineStr">
         <is>
           <t xml:space="preserve">worflows for mycobacterias </t>
         </is>
       </c>
-      <c r="O39" t="inlineStr">
+      <c r="P39" t="inlineStr">
         <is>
           <t xml:space="preserve">scientifics paper </t>
         </is>
       </c>
-      <c r="P39" t="inlineStr">
+      <c r="Q39" t="inlineStr">
         <is>
           <t>Scientific Journals</t>
         </is>
       </c>
-      <c r="Q39" t="inlineStr">
+      <c r="R39" t="inlineStr">
         <is>
           <t xml:space="preserve">Ecuador </t>
         </is>
       </c>
-      <c r="R39" t="inlineStr">
+      <c r="S39" t="inlineStr">
         <is>
           <t>Staff scientist</t>
         </is>
       </c>
-      <c r="S39" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
       <c r="T39" t="inlineStr">
         <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
           <t>dianastefyta@gmail.com</t>
         </is>
       </c>
-      <c r="U39" t="inlineStr">
+      <c r="V39" t="inlineStr">
         <is>
           <t>https://doi.org/10.3390/v14061177</t>
         </is>
       </c>
-      <c r="V39" t="inlineStr">
+      <c r="W39" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -3753,24 +3880,25 @@
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr"/>
       <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr">
+      <c r="Q40" t="inlineStr"/>
+      <c r="R40" t="inlineStr">
         <is>
           <t xml:space="preserve">Australia </t>
         </is>
       </c>
-      <c r="R40" t="inlineStr">
+      <c r="S40" t="inlineStr">
         <is>
           <t>PhD student</t>
         </is>
       </c>
-      <c r="S40" t="inlineStr">
+      <c r="T40" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr"/>
-      <c r="V40" t="inlineStr">
+      <c r="V40" t="inlineStr"/>
+      <c r="W40" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -3831,38 +3959,39 @@
       </c>
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr"/>
-      <c r="O41" t="inlineStr">
+      <c r="O41" t="inlineStr"/>
+      <c r="P41" t="inlineStr">
         <is>
           <t>GTN</t>
         </is>
       </c>
-      <c r="P41" t="inlineStr">
+      <c r="Q41" t="inlineStr">
         <is>
           <t>GTN</t>
         </is>
       </c>
-      <c r="Q41" t="inlineStr">
+      <c r="R41" t="inlineStr">
         <is>
           <t>Australia</t>
         </is>
       </c>
-      <c r="R41" t="inlineStr">
+      <c r="S41" t="inlineStr">
         <is>
           <t>Technical staff</t>
         </is>
       </c>
-      <c r="S41" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
       <c r="T41" t="inlineStr">
         <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
           <t>m.thang@qfab.org</t>
         </is>
       </c>
-      <c r="U41" t="inlineStr"/>
-      <c r="V41" t="inlineStr">
+      <c r="V41" t="inlineStr"/>
+      <c r="W41" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -3922,45 +4051,50 @@
       </c>
       <c r="N42" t="inlineStr">
         <is>
+          <t>BV-BRC</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
           <t>Substractive genomics/proteomics workflow</t>
         </is>
       </c>
-      <c r="O42" t="inlineStr">
+      <c r="P42" t="inlineStr">
         <is>
           <t>GTN</t>
         </is>
       </c>
-      <c r="P42" t="inlineStr">
+      <c r="Q42" t="inlineStr">
         <is>
           <t>GTN</t>
         </is>
       </c>
-      <c r="Q42" t="inlineStr">
+      <c r="R42" t="inlineStr">
         <is>
           <t>India</t>
         </is>
       </c>
-      <c r="R42" t="inlineStr">
+      <c r="S42" t="inlineStr">
         <is>
           <t>PhD student</t>
         </is>
       </c>
-      <c r="S42" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
       <c r="T42" t="inlineStr">
         <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
           <t>pranavathiyani@gmail.com</t>
         </is>
       </c>
-      <c r="U42" t="inlineStr">
+      <c r="V42" t="inlineStr">
         <is>
           <t>https://scholar.google.com/citations?user=iPMRqAoAAAAJ&amp;hl=en&amp;authuser=1</t>
         </is>
       </c>
-      <c r="V42" t="inlineStr">
+      <c r="W42" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -4006,39 +4140,40 @@
         </is>
       </c>
       <c r="M43" t="inlineStr"/>
-      <c r="N43" t="inlineStr">
+      <c r="N43" t="inlineStr"/>
+      <c r="O43" t="inlineStr">
         <is>
           <t>A flowchart tool. Or a simplified flowchart to allow beginner user to use the interface</t>
         </is>
       </c>
-      <c r="O43" t="inlineStr">
+      <c r="P43" t="inlineStr">
         <is>
           <t>University Bioinformatics service</t>
         </is>
       </c>
-      <c r="P43" t="inlineStr">
+      <c r="Q43" t="inlineStr">
         <is>
           <t>In-house training</t>
         </is>
       </c>
-      <c r="Q43" t="inlineStr">
+      <c r="R43" t="inlineStr">
         <is>
           <t>United Kingdom</t>
         </is>
       </c>
-      <c r="R43" t="inlineStr">
+      <c r="S43" t="inlineStr">
         <is>
           <t>Postdoctoral researcher</t>
         </is>
       </c>
-      <c r="S43" t="inlineStr">
+      <c r="T43" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr"/>
-      <c r="V43" t="inlineStr">
+      <c r="V43" t="inlineStr"/>
+      <c r="W43" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -4094,41 +4229,46 @@
       </c>
       <c r="N44" t="inlineStr">
         <is>
+          <t>apFiller, GapBlast, Sealer, FinishM,  Oases, Trans-AbySS, SOAPdenovo-Trans, Qiime2</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
           <t>Softwares that can close gaps in bacterial genomes like GapFiller, GapBlast, Sealer or FinishM. Softwares for assemble transcriptomes as Oases, Trans-ABySS or SOAPdenovo-Trans. Software for Metagenomic analysis as Qiime2.</t>
         </is>
       </c>
-      <c r="O44" t="inlineStr">
+      <c r="P44" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr">
+      <c r="Q44" t="inlineStr"/>
+      <c r="R44" t="inlineStr">
         <is>
           <t>Brazil</t>
         </is>
       </c>
-      <c r="R44" t="inlineStr">
+      <c r="S44" t="inlineStr">
         <is>
           <t>Postdoctoral researcher</t>
         </is>
       </c>
-      <c r="S44" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
       <c r="T44" t="inlineStr">
         <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
           <t>savscosta@gmail.com</t>
         </is>
       </c>
-      <c r="U44" t="inlineStr">
+      <c r="V44" t="inlineStr">
         <is>
           <t>http://lattes.cnpq.br/2495430063617330</t>
         </is>
       </c>
-      <c r="V44" t="inlineStr">
+      <c r="W44" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -4182,37 +4322,42 @@
       </c>
       <c r="N45" t="inlineStr">
         <is>
+          <t>BEAST</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
           <t>Molecular Dating Software like BEAST</t>
         </is>
       </c>
-      <c r="O45" t="inlineStr">
+      <c r="P45" t="inlineStr">
         <is>
           <t>All of em</t>
         </is>
       </c>
-      <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr">
+      <c r="Q45" t="inlineStr"/>
+      <c r="R45" t="inlineStr">
         <is>
           <t>India</t>
         </is>
       </c>
-      <c r="R45" t="inlineStr">
+      <c r="S45" t="inlineStr">
         <is>
           <t>Graduate student</t>
         </is>
       </c>
-      <c r="S45" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
       <c r="T45" t="inlineStr">
         <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="U45" t="inlineStr">
+        <is>
           <t>pkayet199881@gmail.com</t>
         </is>
       </c>
-      <c r="U45" t="inlineStr"/>
-      <c r="V45" t="inlineStr">
+      <c r="V45" t="inlineStr"/>
+      <c r="W45" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -4262,31 +4407,32 @@
         </is>
       </c>
       <c r="M46" t="inlineStr"/>
-      <c r="N46" t="inlineStr">
+      <c r="N46" t="inlineStr"/>
+      <c r="O46" t="inlineStr">
         <is>
           <t>GO analysis</t>
         </is>
       </c>
-      <c r="O46" t="inlineStr"/>
       <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr">
+      <c r="Q46" t="inlineStr"/>
+      <c r="R46" t="inlineStr">
         <is>
           <t>Spain</t>
         </is>
       </c>
-      <c r="R46" t="inlineStr">
+      <c r="S46" t="inlineStr">
         <is>
           <t>Postdoctoral researcher</t>
         </is>
       </c>
-      <c r="S46" t="inlineStr">
+      <c r="T46" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr"/>
-      <c r="V46" t="inlineStr">
+      <c r="V46" t="inlineStr"/>
+      <c r="W46" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -4335,24 +4481,25 @@
       <c r="N47" t="inlineStr"/>
       <c r="O47" t="inlineStr"/>
       <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr">
+      <c r="Q47" t="inlineStr"/>
+      <c r="R47" t="inlineStr">
         <is>
           <t>Spain</t>
         </is>
       </c>
-      <c r="R47" t="inlineStr">
+      <c r="S47" t="inlineStr">
         <is>
           <t>Principal Investigator</t>
         </is>
       </c>
-      <c r="S47" t="inlineStr">
+      <c r="T47" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr"/>
-      <c r="V47" t="inlineStr">
+      <c r="V47" t="inlineStr"/>
+      <c r="W47" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -4402,19 +4549,20 @@
       <c r="O48" t="inlineStr"/>
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr">
+      <c r="R48" t="inlineStr"/>
+      <c r="S48" t="inlineStr">
         <is>
           <t>Postdoctoral researcher</t>
         </is>
       </c>
-      <c r="S48" t="inlineStr">
+      <c r="T48" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr"/>
-      <c r="V48" t="inlineStr">
+      <c r="V48" t="inlineStr"/>
+      <c r="W48" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -4465,34 +4613,35 @@
       </c>
       <c r="M49" t="inlineStr"/>
       <c r="N49" t="inlineStr"/>
-      <c r="O49" t="inlineStr">
+      <c r="O49" t="inlineStr"/>
+      <c r="P49" t="inlineStr">
         <is>
           <t>ABRPI-Training</t>
         </is>
       </c>
-      <c r="P49" t="inlineStr">
+      <c r="Q49" t="inlineStr">
         <is>
           <t>ABRPI-Training</t>
         </is>
       </c>
-      <c r="Q49" t="inlineStr">
+      <c r="R49" t="inlineStr">
         <is>
           <t>Italy</t>
         </is>
       </c>
-      <c r="R49" t="inlineStr">
+      <c r="S49" t="inlineStr">
         <is>
           <t>Staff scientist</t>
         </is>
       </c>
-      <c r="S49" t="inlineStr">
+      <c r="T49" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr"/>
-      <c r="V49" t="inlineStr">
+      <c r="V49" t="inlineStr"/>
+      <c r="W49" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -4539,30 +4688,31 @@
       </c>
       <c r="M50" t="inlineStr"/>
       <c r="N50" t="inlineStr"/>
-      <c r="O50" t="inlineStr">
+      <c r="O50" t="inlineStr"/>
+      <c r="P50" t="inlineStr">
         <is>
           <t>tutorials</t>
         </is>
       </c>
-      <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="inlineStr">
+      <c r="Q50" t="inlineStr"/>
+      <c r="R50" t="inlineStr">
         <is>
           <t>Germany, Turkey</t>
         </is>
       </c>
-      <c r="R50" t="inlineStr">
+      <c r="S50" t="inlineStr">
         <is>
           <t>Staff scientist</t>
         </is>
       </c>
-      <c r="S50" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="T50" t="inlineStr"/>
+      <c r="T50" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="U50" t="inlineStr"/>
-      <c r="V50" t="inlineStr">
+      <c r="V50" t="inlineStr"/>
+      <c r="W50" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -4614,37 +4764,42 @@
       </c>
       <c r="N51" t="inlineStr">
         <is>
+          <t>Unsure</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
           <t>MD simulations and Docking</t>
         </is>
       </c>
-      <c r="O51" t="inlineStr">
+      <c r="P51" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr">
+      <c r="Q51" t="inlineStr"/>
+      <c r="R51" t="inlineStr">
         <is>
           <t>India</t>
         </is>
       </c>
-      <c r="R51" t="inlineStr">
+      <c r="S51" t="inlineStr">
         <is>
           <t>Technical staff</t>
         </is>
       </c>
-      <c r="S51" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
       <c r="T51" t="inlineStr">
         <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="U51" t="inlineStr">
+        <is>
           <t>karthikqk95@gmail.com</t>
         </is>
       </c>
-      <c r="U51" t="inlineStr"/>
-      <c r="V51" t="inlineStr">
+      <c r="V51" t="inlineStr"/>
+      <c r="W51" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -4693,32 +4848,33 @@
       <c r="N52" t="inlineStr"/>
       <c r="O52" t="inlineStr"/>
       <c r="P52" t="inlineStr"/>
-      <c r="Q52" t="inlineStr">
+      <c r="Q52" t="inlineStr"/>
+      <c r="R52" t="inlineStr">
         <is>
           <t>Australia</t>
         </is>
       </c>
-      <c r="R52" t="inlineStr">
+      <c r="S52" t="inlineStr">
         <is>
           <t>Postdoctoral researcher</t>
         </is>
       </c>
-      <c r="S52" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
       <c r="T52" t="inlineStr">
         <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="U52" t="inlineStr">
+        <is>
           <t>varsha.naidu@mq.edu.au</t>
         </is>
       </c>
-      <c r="U52" t="inlineStr">
+      <c r="V52" t="inlineStr">
         <is>
           <t>https://scholar.google.com.au/citations?user=p53_Z8kAAAAJ&amp;hl=en&amp;oi=ao</t>
         </is>
       </c>
-      <c r="V52" t="inlineStr">
+      <c r="W52" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -4760,19 +4916,20 @@
       <c r="O53" t="inlineStr"/>
       <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr">
+      <c r="R53" t="inlineStr"/>
+      <c r="S53" t="inlineStr">
         <is>
           <t>Principal Investigator</t>
         </is>
       </c>
-      <c r="S53" t="inlineStr">
+      <c r="T53" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="T53" t="inlineStr"/>
       <c r="U53" t="inlineStr"/>
-      <c r="V53" t="inlineStr">
+      <c r="V53" t="inlineStr"/>
+      <c r="W53" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -4818,35 +4975,36 @@
         </is>
       </c>
       <c r="M54" t="inlineStr"/>
-      <c r="N54" t="inlineStr">
+      <c r="N54" t="inlineStr"/>
+      <c r="O54" t="inlineStr">
         <is>
           <t>fungal assembly</t>
         </is>
       </c>
-      <c r="O54" t="inlineStr"/>
       <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr">
+      <c r="Q54" t="inlineStr"/>
+      <c r="R54" t="inlineStr">
         <is>
           <t>Poland</t>
         </is>
       </c>
-      <c r="R54" t="inlineStr">
+      <c r="S54" t="inlineStr">
         <is>
           <t>PhD student</t>
         </is>
       </c>
-      <c r="S54" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
       <c r="T54" t="inlineStr">
         <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="U54" t="inlineStr">
+        <is>
           <t>jodlowska.iga@gmail.com</t>
         </is>
       </c>
-      <c r="U54" t="inlineStr"/>
-      <c r="V54" t="inlineStr">
+      <c r="V54" t="inlineStr"/>
+      <c r="W54" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -4898,43 +5056,44 @@
         </is>
       </c>
       <c r="M55" t="inlineStr"/>
-      <c r="N55" t="inlineStr">
+      <c r="N55" t="inlineStr"/>
+      <c r="O55" t="inlineStr">
         <is>
           <t>QIIME2</t>
         </is>
       </c>
-      <c r="O55" t="inlineStr">
+      <c r="P55" t="inlineStr">
         <is>
           <t xml:space="preserve">16S microbial analysis with mothur </t>
         </is>
       </c>
-      <c r="P55" t="inlineStr">
+      <c r="Q55" t="inlineStr">
         <is>
           <t>GTN</t>
         </is>
       </c>
-      <c r="Q55" t="inlineStr">
+      <c r="R55" t="inlineStr">
         <is>
           <t>Italy</t>
         </is>
       </c>
-      <c r="R55" t="inlineStr">
+      <c r="S55" t="inlineStr">
         <is>
           <t>Research/Senior engineer</t>
         </is>
       </c>
-      <c r="S55" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
       <c r="T55" t="inlineStr">
         <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="U55" t="inlineStr">
+        <is>
           <t>kalogers@gmail.com</t>
         </is>
       </c>
-      <c r="U55" t="inlineStr"/>
-      <c r="V55" t="inlineStr">
+      <c r="V55" t="inlineStr"/>
+      <c r="W55" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -4983,28 +5142,29 @@
       <c r="N56" t="inlineStr"/>
       <c r="O56" t="inlineStr"/>
       <c r="P56" t="inlineStr"/>
-      <c r="Q56" t="inlineStr">
+      <c r="Q56" t="inlineStr"/>
+      <c r="R56" t="inlineStr">
         <is>
           <t>Brazil</t>
         </is>
       </c>
-      <c r="R56" t="inlineStr">
+      <c r="S56" t="inlineStr">
         <is>
           <t>PhD student</t>
         </is>
       </c>
-      <c r="S56" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
       <c r="T56" t="inlineStr">
         <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="U56" t="inlineStr">
+        <is>
           <t>felipepinheiro@id.uff.br</t>
         </is>
       </c>
-      <c r="U56" t="inlineStr"/>
-      <c r="V56" t="inlineStr">
+      <c r="V56" t="inlineStr"/>
+      <c r="W56" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -5062,43 +5222,44 @@
           <t xml:space="preserve">none </t>
         </is>
       </c>
-      <c r="N57" t="inlineStr">
+      <c r="N57" t="inlineStr"/>
+      <c r="O57" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="O57" t="inlineStr">
+      <c r="P57" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="P57" t="inlineStr"/>
-      <c r="Q57" t="inlineStr">
+      <c r="Q57" t="inlineStr"/>
+      <c r="R57" t="inlineStr">
         <is>
           <t>India</t>
         </is>
       </c>
-      <c r="R57" t="inlineStr">
+      <c r="S57" t="inlineStr">
         <is>
           <t>PhD student</t>
         </is>
       </c>
-      <c r="S57" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
       <c r="T57" t="inlineStr">
         <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="U57" t="inlineStr">
+        <is>
           <t>mallamuneer123@gmail.com</t>
         </is>
       </c>
-      <c r="U57" t="inlineStr">
+      <c r="V57" t="inlineStr">
         <is>
           <t>no</t>
         </is>
       </c>
-      <c r="V57" t="inlineStr">
+      <c r="W57" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -5154,37 +5315,42 @@
       </c>
       <c r="N58" t="inlineStr">
         <is>
+          <t>complex heatmaps</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
           <t>More parameters to adjust when running a tool</t>
         </is>
       </c>
-      <c r="O58" t="inlineStr">
+      <c r="P58" t="inlineStr">
         <is>
           <t>Online tutorial</t>
         </is>
       </c>
-      <c r="P58" t="inlineStr">
+      <c r="Q58" t="inlineStr">
         <is>
           <t>Online Training</t>
         </is>
       </c>
-      <c r="Q58" t="inlineStr">
+      <c r="R58" t="inlineStr">
         <is>
           <t>Saudi Arabia</t>
         </is>
       </c>
-      <c r="R58" t="inlineStr">
+      <c r="S58" t="inlineStr">
         <is>
           <t>Postdoctoral researcher</t>
         </is>
       </c>
-      <c r="S58" t="inlineStr">
+      <c r="T58" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="T58" t="inlineStr"/>
       <c r="U58" t="inlineStr"/>
-      <c r="V58" t="inlineStr">
+      <c r="V58" t="inlineStr"/>
+      <c r="W58" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -5244,46 +5410,51 @@
       </c>
       <c r="N59" t="inlineStr">
         <is>
+          <t>Unsure</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
           <t xml:space="preserve">I have previously outsourced my 16s and MAG analysis to an external provider. However, I have noted inaccuracies in organism identification. This is why I am trying to learn so I can re-process my raw-data. Although I am struggling at the moment with the examples and workflows as they are not completely similar to my case. It's not completely intuitive for people new to bioinformatics. I would be great if suggestions provided for differences in workflow. Perhaps providing a simple single 16s forward and reverse read rather than multiple datasets to start with and what to do if you want to use a different taxonomic database. 
 I will continue to progress my understanding as I believe it is important area in our field to have an understanding of. </t>
         </is>
       </c>
-      <c r="O59" t="inlineStr">
+      <c r="P59" t="inlineStr">
         <is>
           <t xml:space="preserve">General training materials on Galaxy site and YouTube Galaxy page. </t>
         </is>
       </c>
-      <c r="P59" t="inlineStr">
+      <c r="Q59" t="inlineStr">
         <is>
           <t>GTN</t>
         </is>
       </c>
-      <c r="Q59" t="inlineStr">
+      <c r="R59" t="inlineStr">
         <is>
           <t>Australia</t>
         </is>
       </c>
-      <c r="R59" t="inlineStr">
+      <c r="S59" t="inlineStr">
         <is>
           <t>Postdoctoral researcher</t>
         </is>
       </c>
-      <c r="S59" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
       <c r="T59" t="inlineStr">
         <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="U59" t="inlineStr">
+        <is>
           <t>k.close@uq.edu.au</t>
         </is>
       </c>
-      <c r="U59" t="inlineStr">
+      <c r="V59" t="inlineStr">
         <is>
           <t>https://researchers.uq.edu.au/researcher/36235</t>
         </is>
       </c>
-      <c r="V59" t="inlineStr"/>
+      <c r="W59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
@@ -5335,35 +5506,36 @@
           <t>have not checked</t>
         </is>
       </c>
-      <c r="N60" t="inlineStr">
+      <c r="N60" t="inlineStr"/>
+      <c r="O60" t="inlineStr">
         <is>
           <t xml:space="preserve">It will be useful - If workflow examples will be given so that people can edit and use for purposes like illumina DNA seq analysis etc. </t>
         </is>
       </c>
-      <c r="O60" t="inlineStr">
+      <c r="P60" t="inlineStr">
         <is>
           <t>Galaxy</t>
         </is>
       </c>
-      <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="inlineStr">
+      <c r="Q60" t="inlineStr"/>
+      <c r="R60" t="inlineStr">
         <is>
           <t>Australia</t>
         </is>
       </c>
-      <c r="R60" t="inlineStr">
+      <c r="S60" t="inlineStr">
         <is>
           <t>Postdoctoral researcher</t>
         </is>
       </c>
-      <c r="S60" t="inlineStr">
+      <c r="T60" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="T60" t="inlineStr"/>
       <c r="U60" t="inlineStr"/>
-      <c r="V60" t="inlineStr">
+      <c r="V60" t="inlineStr"/>
+      <c r="W60" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -5415,31 +5587,36 @@
           <t>axe demultiplex quiime</t>
         </is>
       </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>axe, demultiplex, quiime</t>
+        </is>
+      </c>
       <c r="O61" t="inlineStr"/>
       <c r="P61" t="inlineStr"/>
-      <c r="Q61" t="inlineStr">
+      <c r="Q61" t="inlineStr"/>
+      <c r="R61" t="inlineStr">
         <is>
           <t>Mauritius</t>
         </is>
       </c>
-      <c r="R61" t="inlineStr">
+      <c r="S61" t="inlineStr">
         <is>
           <t>Principal Investigator</t>
         </is>
       </c>
-      <c r="S61" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
       <c r="T61" t="inlineStr">
         <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="U61" t="inlineStr">
+        <is>
           <t xml:space="preserve">yogesh.parmessur@msiri.mu </t>
         </is>
       </c>
-      <c r="U61" t="inlineStr"/>
-      <c r="V61" t="inlineStr">
+      <c r="V61" t="inlineStr"/>
+      <c r="W61" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -5497,27 +5674,28 @@
       <c r="O62" t="inlineStr"/>
       <c r="P62" t="inlineStr"/>
       <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr">
+      <c r="R62" t="inlineStr"/>
+      <c r="S62" t="inlineStr">
         <is>
           <t>Principal Investigator</t>
         </is>
       </c>
-      <c r="S62" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
       <c r="T62" t="inlineStr">
         <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="U62" t="inlineStr">
+        <is>
           <t>dr.amrsaeb@gmail.com</t>
         </is>
       </c>
-      <c r="U62" t="inlineStr">
+      <c r="V62" t="inlineStr">
         <is>
           <t>https://scholar.google.com/citations?user=PyQ6R_UAAAAJ</t>
         </is>
       </c>
-      <c r="V62" t="inlineStr">
+      <c r="W62" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -5569,45 +5747,50 @@
       </c>
       <c r="N63" t="inlineStr">
         <is>
+          <t>Unsure</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
           <t>increasing workspace capacity</t>
         </is>
       </c>
-      <c r="O63" t="inlineStr">
+      <c r="P63" t="inlineStr">
         <is>
           <t>online training</t>
         </is>
       </c>
-      <c r="P63" t="inlineStr">
+      <c r="Q63" t="inlineStr">
         <is>
           <t>Online Training</t>
         </is>
       </c>
-      <c r="Q63" t="inlineStr">
+      <c r="R63" t="inlineStr">
         <is>
           <t>Ivory Coast</t>
         </is>
       </c>
-      <c r="R63" t="inlineStr">
+      <c r="S63" t="inlineStr">
         <is>
           <t>Postdoctoral researcher</t>
         </is>
       </c>
-      <c r="S63" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
       <c r="T63" t="inlineStr">
         <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="U63" t="inlineStr">
+        <is>
           <t>nziparfait90@gmail.com</t>
         </is>
       </c>
-      <c r="U63" t="inlineStr">
+      <c r="V63" t="inlineStr">
         <is>
           <t>IJIAS, IJCMAS</t>
         </is>
       </c>
-      <c r="V63" t="inlineStr">
+      <c r="W63" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -5659,39 +5842,44 @@
           <t>I am a veterinarian and I would like to see databases of zoonotic diseases included.</t>
         </is>
       </c>
-      <c r="N64" t="inlineStr"/>
-      <c r="O64" t="inlineStr">
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>zoonotic diseases databases</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr"/>
+      <c r="P64" t="inlineStr">
         <is>
           <t>One Health Resources</t>
         </is>
       </c>
-      <c r="P64" t="inlineStr">
+      <c r="Q64" t="inlineStr">
         <is>
           <t>In-house training</t>
         </is>
       </c>
-      <c r="Q64" t="inlineStr">
+      <c r="R64" t="inlineStr">
         <is>
           <t>Peru</t>
         </is>
       </c>
-      <c r="R64" t="inlineStr">
+      <c r="S64" t="inlineStr">
         <is>
           <t>Graduate student</t>
         </is>
       </c>
-      <c r="S64" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
       <c r="T64" t="inlineStr">
         <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="U64" t="inlineStr">
+        <is>
           <t>armandofernandez@yahoo.es</t>
         </is>
       </c>
-      <c r="U64" t="inlineStr"/>
-      <c r="V64" t="inlineStr">
+      <c r="V64" t="inlineStr"/>
+      <c r="W64" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -5745,31 +5933,36 @@
           <t>DIAMOND</t>
         </is>
       </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>DIAMOND</t>
+        </is>
+      </c>
       <c r="O65" t="inlineStr"/>
       <c r="P65" t="inlineStr"/>
-      <c r="Q65" t="inlineStr">
+      <c r="Q65" t="inlineStr"/>
+      <c r="R65" t="inlineStr">
         <is>
           <t>India</t>
         </is>
       </c>
-      <c r="R65" t="inlineStr">
+      <c r="S65" t="inlineStr">
         <is>
           <t>PhD student</t>
         </is>
       </c>
-      <c r="S65" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
       <c r="T65" t="inlineStr">
         <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="U65" t="inlineStr">
+        <is>
           <t>m.kedare@iitg.ac.in</t>
         </is>
       </c>
-      <c r="U65" t="inlineStr"/>
-      <c r="V65" t="inlineStr">
+      <c r="V65" t="inlineStr"/>
+      <c r="W65" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -5822,32 +6015,33 @@
       <c r="N66" t="inlineStr"/>
       <c r="O66" t="inlineStr"/>
       <c r="P66" t="inlineStr"/>
-      <c r="Q66" t="inlineStr">
+      <c r="Q66" t="inlineStr"/>
+      <c r="R66" t="inlineStr">
         <is>
           <t>Brazil</t>
         </is>
       </c>
-      <c r="R66" t="inlineStr">
+      <c r="S66" t="inlineStr">
         <is>
           <t>PhD student</t>
         </is>
       </c>
-      <c r="S66" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
       <c r="T66" t="inlineStr">
         <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="U66" t="inlineStr">
+        <is>
           <t>h.paulocampiteli@gmail.com</t>
         </is>
       </c>
-      <c r="U66" t="inlineStr">
+      <c r="V66" t="inlineStr">
         <is>
           <t xml:space="preserve">our most recent published paper in which most of analysis were made on galaxy https://pubmed.NCBI.nlm.nih.gov/37017807/ </t>
         </is>
       </c>
-      <c r="V66" t="inlineStr">
+      <c r="W66" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -5886,6 +6080,7 @@
       <c r="T67" t="inlineStr"/>
       <c r="U67" t="inlineStr"/>
       <c r="V67" t="inlineStr"/>
+      <c r="W67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
@@ -5935,35 +6130,36 @@
           <t>It is quite complete</t>
         </is>
       </c>
-      <c r="N68" t="inlineStr">
+      <c r="N68" t="inlineStr"/>
+      <c r="O68" t="inlineStr">
         <is>
           <t>It is quite complete</t>
         </is>
       </c>
-      <c r="O68" t="inlineStr">
+      <c r="P68" t="inlineStr">
         <is>
           <t>Still have to look at that</t>
         </is>
       </c>
-      <c r="P68" t="inlineStr"/>
-      <c r="Q68" t="inlineStr">
+      <c r="Q68" t="inlineStr"/>
+      <c r="R68" t="inlineStr">
         <is>
           <t>Spain</t>
         </is>
       </c>
-      <c r="R68" t="inlineStr">
+      <c r="S68" t="inlineStr">
         <is>
           <t>Principal Investigator</t>
         </is>
       </c>
-      <c r="S68" t="inlineStr">
+      <c r="T68" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="T68" t="inlineStr"/>
       <c r="U68" t="inlineStr"/>
-      <c r="V68" t="inlineStr">
+      <c r="V68" t="inlineStr"/>
+      <c r="W68" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -6009,31 +6205,32 @@
         </is>
       </c>
       <c r="M69" t="inlineStr"/>
-      <c r="N69" t="inlineStr">
+      <c r="N69" t="inlineStr"/>
+      <c r="O69" t="inlineStr">
         <is>
           <t>Molecular dynamic simulation of biomolecules</t>
         </is>
       </c>
-      <c r="O69" t="inlineStr"/>
       <c r="P69" t="inlineStr"/>
-      <c r="Q69" t="inlineStr">
+      <c r="Q69" t="inlineStr"/>
+      <c r="R69" t="inlineStr">
         <is>
           <t>India</t>
         </is>
       </c>
-      <c r="R69" t="inlineStr">
+      <c r="S69" t="inlineStr">
         <is>
           <t>Technical staff</t>
         </is>
       </c>
-      <c r="S69" t="inlineStr">
+      <c r="T69" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="T69" t="inlineStr"/>
       <c r="U69" t="inlineStr"/>
-      <c r="V69" t="inlineStr">
+      <c r="V69" t="inlineStr"/>
+      <c r="W69" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -6079,19 +6276,20 @@
       <c r="O70" t="inlineStr"/>
       <c r="P70" t="inlineStr"/>
       <c r="Q70" t="inlineStr"/>
-      <c r="R70" t="inlineStr">
+      <c r="R70" t="inlineStr"/>
+      <c r="S70" t="inlineStr">
         <is>
           <t>PhD student</t>
         </is>
       </c>
-      <c r="S70" t="inlineStr">
+      <c r="T70" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="T70" t="inlineStr"/>
       <c r="U70" t="inlineStr"/>
       <c r="V70" t="inlineStr"/>
+      <c r="W70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
@@ -6146,24 +6344,25 @@
       <c r="N71" t="inlineStr"/>
       <c r="O71" t="inlineStr"/>
       <c r="P71" t="inlineStr"/>
-      <c r="Q71" t="inlineStr">
+      <c r="Q71" t="inlineStr"/>
+      <c r="R71" t="inlineStr">
         <is>
           <t>France</t>
         </is>
       </c>
-      <c r="R71" t="inlineStr">
+      <c r="S71" t="inlineStr">
         <is>
           <t>R&amp;D Project Manager</t>
         </is>
       </c>
-      <c r="S71" t="inlineStr">
+      <c r="T71" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="T71" t="inlineStr"/>
       <c r="U71" t="inlineStr"/>
-      <c r="V71" t="inlineStr">
+      <c r="V71" t="inlineStr"/>
+      <c r="W71" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -6213,31 +6412,36 @@
           <t>Trinity statistics</t>
         </is>
       </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>Trinity statistics</t>
+        </is>
+      </c>
       <c r="O72" t="inlineStr"/>
       <c r="P72" t="inlineStr"/>
-      <c r="Q72" t="inlineStr">
+      <c r="Q72" t="inlineStr"/>
+      <c r="R72" t="inlineStr">
         <is>
           <t>Philippines</t>
         </is>
       </c>
-      <c r="R72" t="inlineStr">
+      <c r="S72" t="inlineStr">
         <is>
           <t>Principal Investigator</t>
         </is>
       </c>
-      <c r="S72" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
       <c r="T72" t="inlineStr">
         <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="U72" t="inlineStr">
+        <is>
           <t>ma.carmen.lagman@gmail.com</t>
         </is>
       </c>
-      <c r="U72" t="inlineStr"/>
-      <c r="V72" t="inlineStr">
+      <c r="V72" t="inlineStr"/>
+      <c r="W72" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -6283,19 +6487,20 @@
       <c r="O73" t="inlineStr"/>
       <c r="P73" t="inlineStr"/>
       <c r="Q73" t="inlineStr"/>
-      <c r="R73" t="inlineStr">
+      <c r="R73" t="inlineStr"/>
+      <c r="S73" t="inlineStr">
         <is>
           <t>Graduate student</t>
         </is>
       </c>
-      <c r="S73" t="inlineStr">
+      <c r="T73" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="T73" t="inlineStr"/>
       <c r="U73" t="inlineStr"/>
-      <c r="V73" t="inlineStr">
+      <c r="V73" t="inlineStr"/>
+      <c r="W73" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -6353,27 +6558,32 @@
           <t>Co-occurrence network analysis of metagenomic data and it visualization plot</t>
         </is>
       </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>Co-occurrence network analysis</t>
+        </is>
+      </c>
       <c r="O74" t="inlineStr"/>
       <c r="P74" t="inlineStr"/>
       <c r="Q74" t="inlineStr"/>
-      <c r="R74" t="inlineStr">
+      <c r="R74" t="inlineStr"/>
+      <c r="S74" t="inlineStr">
         <is>
           <t>PhD student</t>
         </is>
       </c>
-      <c r="S74" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
       <c r="T74" t="inlineStr">
         <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="U74" t="inlineStr">
+        <is>
           <t>romen86@gamma.ttk.pte.hu</t>
         </is>
       </c>
-      <c r="U74" t="inlineStr"/>
-      <c r="V74" t="inlineStr">
+      <c r="V74" t="inlineStr"/>
+      <c r="W74" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -6423,19 +6633,24 @@
           <t xml:space="preserve">GWAS, SNP detection, pseudochromosome modeling </t>
         </is>
       </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">GWAS, SNP detection, pseudochromosome modeling </t>
+        </is>
+      </c>
       <c r="O75" t="inlineStr"/>
       <c r="P75" t="inlineStr"/>
       <c r="Q75" t="inlineStr"/>
-      <c r="R75" t="inlineStr">
+      <c r="R75" t="inlineStr"/>
+      <c r="S75" t="inlineStr">
         <is>
           <t>PhD student</t>
         </is>
       </c>
-      <c r="S75" t="inlineStr"/>
       <c r="T75" t="inlineStr"/>
       <c r="U75" t="inlineStr"/>
-      <c r="V75" t="inlineStr">
+      <c r="V75" t="inlineStr"/>
+      <c r="W75" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -6481,19 +6696,20 @@
       <c r="O76" t="inlineStr"/>
       <c r="P76" t="inlineStr"/>
       <c r="Q76" t="inlineStr"/>
-      <c r="R76" t="inlineStr">
+      <c r="R76" t="inlineStr"/>
+      <c r="S76" t="inlineStr">
         <is>
           <t>Undergraduate</t>
         </is>
       </c>
-      <c r="S76" t="inlineStr">
+      <c r="T76" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="T76" t="inlineStr"/>
       <c r="U76" t="inlineStr"/>
-      <c r="V76" t="inlineStr">
+      <c r="V76" t="inlineStr"/>
+      <c r="W76" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -6554,24 +6770,25 @@
       <c r="N77" t="inlineStr"/>
       <c r="O77" t="inlineStr"/>
       <c r="P77" t="inlineStr"/>
-      <c r="Q77" t="inlineStr">
+      <c r="Q77" t="inlineStr"/>
+      <c r="R77" t="inlineStr">
         <is>
           <t>Czech Republic</t>
         </is>
       </c>
-      <c r="R77" t="inlineStr">
+      <c r="S77" t="inlineStr">
         <is>
           <t>Postdoctoral researcher</t>
         </is>
       </c>
-      <c r="S77" t="inlineStr">
+      <c r="T77" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="T77" t="inlineStr"/>
       <c r="U77" t="inlineStr"/>
-      <c r="V77" t="inlineStr">
+      <c r="V77" t="inlineStr"/>
+      <c r="W77" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -6624,24 +6841,25 @@
       <c r="N78" t="inlineStr"/>
       <c r="O78" t="inlineStr"/>
       <c r="P78" t="inlineStr"/>
-      <c r="Q78" t="inlineStr">
+      <c r="Q78" t="inlineStr"/>
+      <c r="R78" t="inlineStr">
         <is>
           <t>Ireland</t>
         </is>
       </c>
-      <c r="R78" t="inlineStr">
+      <c r="S78" t="inlineStr">
         <is>
           <t>Postdoctoral researcher</t>
         </is>
       </c>
-      <c r="S78" t="inlineStr">
+      <c r="T78" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="T78" t="inlineStr"/>
       <c r="U78" t="inlineStr"/>
-      <c r="V78" t="inlineStr">
+      <c r="V78" t="inlineStr"/>
+      <c r="W78" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -6687,19 +6905,20 @@
       <c r="O79" t="inlineStr"/>
       <c r="P79" t="inlineStr"/>
       <c r="Q79" t="inlineStr"/>
-      <c r="R79" t="inlineStr">
+      <c r="R79" t="inlineStr"/>
+      <c r="S79" t="inlineStr">
         <is>
           <t>Principal Investigator</t>
         </is>
       </c>
-      <c r="S79" t="inlineStr">
+      <c r="T79" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="T79" t="inlineStr"/>
       <c r="U79" t="inlineStr"/>
-      <c r="V79" t="inlineStr">
+      <c r="V79" t="inlineStr"/>
+      <c r="W79" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -6746,34 +6965,35 @@
       </c>
       <c r="M80" t="inlineStr"/>
       <c r="N80" t="inlineStr"/>
-      <c r="O80" t="inlineStr">
+      <c r="O80" t="inlineStr"/>
+      <c r="P80" t="inlineStr">
         <is>
           <t>Youtube, Galaxy training tutorials, Online courses</t>
         </is>
       </c>
-      <c r="P80" t="inlineStr">
+      <c r="Q80" t="inlineStr">
         <is>
           <t>GTN</t>
         </is>
       </c>
-      <c r="Q80" t="inlineStr">
+      <c r="R80" t="inlineStr">
         <is>
           <t>Singapore</t>
         </is>
       </c>
-      <c r="R80" t="inlineStr">
+      <c r="S80" t="inlineStr">
         <is>
           <t>Technical staff</t>
         </is>
       </c>
-      <c r="S80" t="inlineStr">
+      <c r="T80" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="T80" t="inlineStr"/>
       <c r="U80" t="inlineStr"/>
       <c r="V80" t="inlineStr"/>
+      <c r="W80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
@@ -6819,19 +7039,20 @@
       <c r="O81" t="inlineStr"/>
       <c r="P81" t="inlineStr"/>
       <c r="Q81" t="inlineStr"/>
-      <c r="R81" t="inlineStr">
+      <c r="R81" t="inlineStr"/>
+      <c r="S81" t="inlineStr">
         <is>
           <t>Principal Investigator</t>
         </is>
       </c>
-      <c r="S81" t="inlineStr">
+      <c r="T81" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="T81" t="inlineStr"/>
       <c r="U81" t="inlineStr"/>
-      <c r="V81" t="inlineStr">
+      <c r="V81" t="inlineStr"/>
+      <c r="W81" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -6882,34 +7103,35 @@
       </c>
       <c r="M82" t="inlineStr"/>
       <c r="N82" t="inlineStr"/>
-      <c r="O82" t="inlineStr">
+      <c r="O82" t="inlineStr"/>
+      <c r="P82" t="inlineStr">
         <is>
           <t>Workflow</t>
         </is>
       </c>
-      <c r="P82" t="inlineStr">
+      <c r="Q82" t="inlineStr">
         <is>
           <t>Galaxy Help</t>
         </is>
       </c>
-      <c r="Q82" t="inlineStr">
+      <c r="R82" t="inlineStr">
         <is>
           <t>Malaysia</t>
         </is>
       </c>
-      <c r="R82" t="inlineStr">
+      <c r="S82" t="inlineStr">
         <is>
           <t>Principal Investigator</t>
         </is>
       </c>
-      <c r="S82" t="inlineStr">
+      <c r="T82" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="T82" t="inlineStr"/>
       <c r="U82" t="inlineStr"/>
-      <c r="V82" t="inlineStr">
+      <c r="V82" t="inlineStr"/>
+      <c r="W82" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -6956,34 +7178,35 @@
       </c>
       <c r="M83" t="inlineStr"/>
       <c r="N83" t="inlineStr"/>
-      <c r="O83" t="inlineStr">
+      <c r="O83" t="inlineStr"/>
+      <c r="P83" t="inlineStr">
         <is>
           <t>no</t>
         </is>
       </c>
-      <c r="P83" t="inlineStr"/>
-      <c r="Q83" t="inlineStr">
+      <c r="Q83" t="inlineStr"/>
+      <c r="R83" t="inlineStr">
         <is>
           <t>South Korea</t>
         </is>
       </c>
-      <c r="R83" t="inlineStr">
+      <c r="S83" t="inlineStr">
         <is>
           <t>Graduate student</t>
         </is>
       </c>
-      <c r="S83" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="T83" t="inlineStr"/>
-      <c r="U83" t="inlineStr">
+      <c r="T83" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="U83" t="inlineStr"/>
+      <c r="V83" t="inlineStr">
         <is>
           <t>i am having a problem in galaxy in running LEFSE. and could not find solution in their forum also</t>
         </is>
       </c>
-      <c r="V83" t="inlineStr">
+      <c r="W83" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -7028,20 +7251,21 @@
       <c r="N84" t="inlineStr"/>
       <c r="O84" t="inlineStr"/>
       <c r="P84" t="inlineStr"/>
-      <c r="Q84" t="inlineStr">
+      <c r="Q84" t="inlineStr"/>
+      <c r="R84" t="inlineStr">
         <is>
           <t>Hungary</t>
         </is>
       </c>
-      <c r="R84" t="inlineStr">
+      <c r="S84" t="inlineStr">
         <is>
           <t>Research/Senior engineer</t>
         </is>
       </c>
-      <c r="S84" t="inlineStr"/>
       <c r="T84" t="inlineStr"/>
       <c r="U84" t="inlineStr"/>
-      <c r="V84" t="inlineStr">
+      <c r="V84" t="inlineStr"/>
+      <c r="W84" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -7099,35 +7323,40 @@
           <t>Pyseer, Unitigs (or other GWAS tools) If I have them available on Galaxy, I wouldn't use anything more</t>
         </is>
       </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>Pyseer, Unitigs, GWAS tools</t>
+        </is>
+      </c>
       <c r="O85" t="inlineStr"/>
       <c r="P85" t="inlineStr"/>
-      <c r="Q85" t="inlineStr">
+      <c r="Q85" t="inlineStr"/>
+      <c r="R85" t="inlineStr">
         <is>
           <t>Spain</t>
         </is>
       </c>
-      <c r="R85" t="inlineStr">
+      <c r="S85" t="inlineStr">
         <is>
           <t>PhD student</t>
         </is>
       </c>
-      <c r="S85" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
       <c r="T85" t="inlineStr">
         <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="U85" t="inlineStr">
+        <is>
           <t>bielgarcies22@gmail.com</t>
         </is>
       </c>
-      <c r="U85" t="inlineStr">
+      <c r="V85" t="inlineStr">
         <is>
           <t xml:space="preserve">No, but if you put Biel Garcias on pubmed you can find it. However, until this moment my papers are not genomics related </t>
         </is>
       </c>
-      <c r="V85" t="inlineStr">
+      <c r="W85" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -7158,6 +7387,7 @@
       <c r="T86" t="inlineStr"/>
       <c r="U86" t="inlineStr"/>
       <c r="V86" t="inlineStr"/>
+      <c r="W86" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
